--- a/outcome/appendix/data/forecast/Syphilis.xlsx
+++ b/outcome/appendix/data/forecast/Syphilis.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">upper_95</t>
   </si>
   <si>
-    <t xml:space="preserve">disease_1</t>
+    <t xml:space="preserve">disease_en</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">color</t>
   </si>
   <si>
-    <t xml:space="preserve">梅毒</t>
+    <t xml:space="preserve">Syphilis</t>
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>49786.7990558374</v>
+        <v>47378.6253382861</v>
       </c>
       <c r="C2" t="n">
-        <v>45368.7358840747</v>
+        <v>44258.6089010572</v>
       </c>
       <c r="D2" t="n">
-        <v>43866.9053611775</v>
+        <v>42944.195216362</v>
       </c>
       <c r="E2" t="n">
-        <v>53260.6375079063</v>
+        <v>50506.9989155226</v>
       </c>
       <c r="F2" t="n">
-        <v>55050.5295408356</v>
+        <v>51785.4979252216</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>39671</v>
       </c>
       <c r="I2" t="n">
-        <v>10115.7990558374</v>
+        <v>7707.62533828612</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>44251.3712780779</v>
+        <v>43025.8667711448</v>
       </c>
       <c r="C3" t="n">
-        <v>37380.3556029402</v>
+        <v>40107.3322374304</v>
       </c>
       <c r="D3" t="n">
-        <v>35256.2885241218</v>
+        <v>38828.9718637338</v>
       </c>
       <c r="E3" t="n">
-        <v>49385.9537008084</v>
+        <v>46207.1123446331</v>
       </c>
       <c r="F3" t="n">
-        <v>50752.4333289844</v>
+        <v>47956.6377474042</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>21448</v>
       </c>
       <c r="I3" t="n">
-        <v>22803.3712780779</v>
+        <v>21577.8667711448</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>55811.4207490076</v>
+        <v>55052.3721672723</v>
       </c>
       <c r="C4" t="n">
-        <v>49471.3201353435</v>
+        <v>52252.6774231719</v>
       </c>
       <c r="D4" t="n">
-        <v>47720.8067187553</v>
+        <v>50609.751938933</v>
       </c>
       <c r="E4" t="n">
-        <v>60319.3137118115</v>
+        <v>57909.5059421172</v>
       </c>
       <c r="F4" t="n">
-        <v>62209.3981962628</v>
+        <v>59625.7579332147</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>41154</v>
       </c>
       <c r="I4" t="n">
-        <v>14657.4207490076</v>
+        <v>13898.3721672723</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>54567.7742118682</v>
+        <v>53383.6310312005</v>
       </c>
       <c r="C5" t="n">
-        <v>50157.7473820443</v>
+        <v>50229.0928920009</v>
       </c>
       <c r="D5" t="n">
-        <v>48445.0953549996</v>
+        <v>48991.2620902812</v>
       </c>
       <c r="E5" t="n">
-        <v>58572.6473345567</v>
+        <v>56510.3639890986</v>
       </c>
       <c r="F5" t="n">
-        <v>60525.4252958523</v>
+        <v>57980.5863422412</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>46728</v>
       </c>
       <c r="I5" t="n">
-        <v>7839.77421186818</v>
+        <v>6655.63103120053</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>57271.6487779814</v>
+        <v>55591.7098738215</v>
       </c>
       <c r="C6" t="n">
-        <v>51700.419702794</v>
+        <v>52275.7441690656</v>
       </c>
       <c r="D6" t="n">
-        <v>49780.866403941</v>
+        <v>50849.2029044071</v>
       </c>
       <c r="E6" t="n">
-        <v>61933.4949498433</v>
+        <v>58844.0861528467</v>
       </c>
       <c r="F6" t="n">
-        <v>63958.0477346346</v>
+        <v>60587.9186614343</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>46753</v>
       </c>
       <c r="I6" t="n">
-        <v>10518.6487779814</v>
+        <v>8838.70987382154</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>55610.5420647853</v>
+        <v>54593.8509783664</v>
       </c>
       <c r="C7" t="n">
-        <v>49904.0692597761</v>
+        <v>51602.2135679059</v>
       </c>
       <c r="D7" t="n">
-        <v>48358.5278013561</v>
+        <v>49682.023411173</v>
       </c>
       <c r="E7" t="n">
-        <v>60435.5468252697</v>
+        <v>58123.4584391805</v>
       </c>
       <c r="F7" t="n">
-        <v>62541.2751337181</v>
+        <v>59865.2667852127</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>46538</v>
       </c>
       <c r="I7" t="n">
-        <v>9072.54206478534</v>
+        <v>8055.85097836643</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>58744.9752755385</v>
+        <v>57738.9944675593</v>
       </c>
       <c r="C8" t="n">
-        <v>54438.2403739588</v>
+        <v>54858.8068711971</v>
       </c>
       <c r="D8" t="n">
-        <v>52887.0453213971</v>
+        <v>52845.4001086941</v>
       </c>
       <c r="E8" t="n">
-        <v>63555.8132612877</v>
+        <v>60872.7196322075</v>
       </c>
       <c r="F8" t="n">
-        <v>65752.2955954528</v>
+        <v>62181.7707159336</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>46838</v>
       </c>
       <c r="I8" t="n">
-        <v>11906.9752755385</v>
+        <v>10900.9944675593</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,28 +648,28 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>58742.0372146643</v>
+        <v>57219.3718618726</v>
       </c>
       <c r="C9" t="n">
-        <v>54193.3153036934</v>
+        <v>53884.5283864474</v>
       </c>
       <c r="D9" t="n">
-        <v>52810.0827550093</v>
+        <v>52464.2960883526</v>
       </c>
       <c r="E9" t="n">
-        <v>63973.9116333779</v>
+        <v>60701.0358554931</v>
       </c>
       <c r="F9" t="n">
-        <v>66270.7807443269</v>
+        <v>62879.911895831</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>50386</v>
+        <v>46838</v>
       </c>
       <c r="I9" t="n">
-        <v>8356.03721466427</v>
+        <v>10381.3718618726</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>56711.8067502739</v>
+        <v>56088.8499973912</v>
       </c>
       <c r="C10" t="n">
-        <v>52574.6203627444</v>
+        <v>52317.6927491367</v>
       </c>
       <c r="D10" t="n">
-        <v>50225.9702650046</v>
+        <v>50257.0755267404</v>
       </c>
       <c r="E10" t="n">
-        <v>61726.0718044027</v>
+        <v>59896.7835921251</v>
       </c>
       <c r="F10" t="n">
-        <v>64132.9125501867</v>
+        <v>61286.6572247318</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>48965</v>
       </c>
       <c r="I10" t="n">
-        <v>7746.80675027386</v>
+        <v>7123.84999739116</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>56318.2355724638</v>
+        <v>53645.1082240329</v>
       </c>
       <c r="C11" t="n">
-        <v>51682.8266261237</v>
+        <v>50213.9820670547</v>
       </c>
       <c r="D11" t="n">
-        <v>49491.8469007901</v>
+        <v>48656.1406841306</v>
       </c>
       <c r="E11" t="n">
-        <v>61562.5901002017</v>
+        <v>57102.1042910301</v>
       </c>
       <c r="F11" t="n">
-        <v>64088.8596696233</v>
+        <v>59434.8666358811</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>44438</v>
       </c>
       <c r="I11" t="n">
-        <v>11880.2355724638</v>
+        <v>9207.10822403286</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>55563.1433534527</v>
+        <v>54510.5937760051</v>
       </c>
       <c r="C12" t="n">
-        <v>50859.6509283663</v>
+        <v>51110.6958408147</v>
       </c>
       <c r="D12" t="n">
-        <v>48533.5936098784</v>
+        <v>49160.3113708426</v>
       </c>
       <c r="E12" t="n">
-        <v>61219.2765028523</v>
+        <v>58178.06741023</v>
       </c>
       <c r="F12" t="n">
-        <v>63874.2459716265</v>
+        <v>60124.7047548273</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>45305</v>
       </c>
       <c r="I12" t="n">
-        <v>10258.1433534527</v>
+        <v>9205.5937760051</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>54047.678136563</v>
+        <v>53557.7838367827</v>
       </c>
       <c r="C13" t="n">
-        <v>48677.2760078207</v>
+        <v>50031.2769900352</v>
       </c>
       <c r="D13" t="n">
-        <v>46522.4489269992</v>
+        <v>47473.8856517759</v>
       </c>
       <c r="E13" t="n">
-        <v>59866.2916258694</v>
+        <v>57314.5762745818</v>
       </c>
       <c r="F13" t="n">
-        <v>62659.0064730337</v>
+        <v>59981.2756326293</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>44696</v>
       </c>
       <c r="I13" t="n">
-        <v>9351.67813656301</v>
+        <v>8861.7838367827</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>55379.9871781391</v>
+        <v>51655.2930625566</v>
       </c>
       <c r="C14" t="n">
-        <v>50239.1232325317</v>
+        <v>47753.0904220774</v>
       </c>
       <c r="D14" t="n">
-        <v>48052.2037344116</v>
+        <v>45158.0469320329</v>
       </c>
       <c r="E14" t="n">
-        <v>62096.2357108954</v>
+        <v>55638.6352741554</v>
       </c>
       <c r="F14" t="n">
-        <v>65035.4922279178</v>
+        <v>57968.0846887972</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>40079</v>
       </c>
       <c r="I14" t="n">
-        <v>15300.9871781391</v>
+        <v>11576.2930625566</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>50377.1693284984</v>
+        <v>47774.3711156666</v>
       </c>
       <c r="C15" t="n">
-        <v>43817.5079092944</v>
+        <v>43512.4269590563</v>
       </c>
       <c r="D15" t="n">
-        <v>41472.8693375701</v>
+        <v>41322.7189570771</v>
       </c>
       <c r="E15" t="n">
-        <v>57680.7143389952</v>
+        <v>52466.512116239</v>
       </c>
       <c r="F15" t="n">
-        <v>60637.1406613942</v>
+        <v>54655.3788260016</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>33615</v>
       </c>
       <c r="I15" t="n">
-        <v>16762.1693284984</v>
+        <v>14159.3711156666</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>60846.6216701412</v>
+        <v>59780.9618500165</v>
       </c>
       <c r="C16" t="n">
-        <v>52300.7036137673</v>
+        <v>55439.2217305874</v>
       </c>
       <c r="D16" t="n">
-        <v>50314.2732047517</v>
+        <v>53697.7355767957</v>
       </c>
       <c r="E16" t="n">
-        <v>69567.1731407434</v>
+        <v>64565.4271239919</v>
       </c>
       <c r="F16" t="n">
-        <v>72824.8600195439</v>
+        <v>66964.5516189288</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>50682</v>
       </c>
       <c r="I16" t="n">
-        <v>10164.6216701412</v>
+        <v>9098.9618500165</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>59511.9131013956</v>
+        <v>57854.8305288418</v>
       </c>
       <c r="C17" t="n">
-        <v>52273.9615909616</v>
+        <v>53381.4043400954</v>
       </c>
       <c r="D17" t="n">
-        <v>50234.7611977815</v>
+        <v>51392.0969762608</v>
       </c>
       <c r="E17" t="n">
-        <v>68025.8041105769</v>
+        <v>62719.8536571733</v>
       </c>
       <c r="F17" t="n">
-        <v>71454.8623170364</v>
+        <v>65472.2794532967</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>49113</v>
       </c>
       <c r="I17" t="n">
-        <v>10398.9131013956</v>
+        <v>8741.83052884175</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>62191.7349377504</v>
+        <v>60053.5633353662</v>
       </c>
       <c r="C18" t="n">
-        <v>53966.4947206386</v>
+        <v>55748.601357814</v>
       </c>
       <c r="D18" t="n">
-        <v>52201.6995396789</v>
+        <v>53479.7961373808</v>
       </c>
       <c r="E18" t="n">
-        <v>71589.4779390442</v>
+        <v>64780.731633121</v>
       </c>
       <c r="F18" t="n">
-        <v>75197.6806805421</v>
+        <v>67926.034349203</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>47999</v>
       </c>
       <c r="I18" t="n">
-        <v>14192.7349377504</v>
+        <v>12054.5633353662</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>60768.3213437616</v>
+        <v>59015.9973798452</v>
       </c>
       <c r="C19" t="n">
-        <v>53153.008864963</v>
+        <v>54312.5749372387</v>
       </c>
       <c r="D19" t="n">
-        <v>51328.5597857568</v>
+        <v>52004.3884020258</v>
       </c>
       <c r="E19" t="n">
-        <v>70290.8427794996</v>
+        <v>63986.1507722805</v>
       </c>
       <c r="F19" t="n">
-        <v>74085.7309549678</v>
+        <v>67879.3786643706</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>47423</v>
       </c>
       <c r="I19" t="n">
-        <v>13345.3213437616</v>
+        <v>11592.9973798452</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>63392.854236463</v>
+        <v>62198.4407575884</v>
       </c>
       <c r="C20" t="n">
-        <v>55631.6890125708</v>
+        <v>57591.3563333161</v>
       </c>
       <c r="D20" t="n">
-        <v>54122.6099774998</v>
+        <v>54651.2778754275</v>
       </c>
       <c r="E20" t="n">
-        <v>73606.1624666125</v>
+        <v>67409.753387369</v>
       </c>
       <c r="F20" t="n">
-        <v>77595.0596217656</v>
+        <v>70869.1216625966</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>51531</v>
       </c>
       <c r="I20" t="n">
-        <v>11861.854236463</v>
+        <v>10667.4407575884</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>63468.4733965303</v>
+        <v>62158.4565549613</v>
       </c>
       <c r="C21" t="n">
-        <v>55787.3492884469</v>
+        <v>57117.0353835195</v>
       </c>
       <c r="D21" t="n">
-        <v>53810.1960670903</v>
+        <v>55462.9019703305</v>
       </c>
       <c r="E21" t="n">
-        <v>74214.570903335</v>
+        <v>67705.2708420498</v>
       </c>
       <c r="F21" t="n">
-        <v>78404.5988979985</v>
+        <v>72221.1299020001</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>46091</v>
       </c>
       <c r="I21" t="n">
-        <v>17377.4733965303</v>
+        <v>16067.4565549613</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>61588.2881700058</v>
+        <v>60378.2911176507</v>
       </c>
       <c r="C22" t="n">
-        <v>54638.9125189098</v>
+        <v>55255.8721082387</v>
       </c>
       <c r="D22" t="n">
-        <v>51137.5450189136</v>
+        <v>53424.4544559397</v>
       </c>
       <c r="E22" t="n">
-        <v>72152.0371005106</v>
+        <v>66078.6103525855</v>
       </c>
       <c r="F22" t="n">
-        <v>76550.1318147762</v>
+        <v>70177.088430558</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>45792</v>
       </c>
       <c r="I22" t="n">
-        <v>15796.2881700058</v>
+        <v>14586.2911176507</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>61230.3076557399</v>
+        <v>58276.0251940567</v>
       </c>
       <c r="C23" t="n">
-        <v>53739.5420462284</v>
+        <v>53257.792324169</v>
       </c>
       <c r="D23" t="n">
-        <v>50127.7978417252</v>
+        <v>51050.2050142188</v>
       </c>
       <c r="E23" t="n">
-        <v>72168.776120672</v>
+        <v>64185.8959592923</v>
       </c>
       <c r="F23" t="n">
-        <v>76781.7027471866</v>
+        <v>67838.0508186341</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>40900</v>
       </c>
       <c r="I23" t="n">
-        <v>20330.3076557399</v>
+        <v>17376.0251940567</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>60573.297185182</v>
+        <v>58794.056253437</v>
       </c>
       <c r="C24" t="n">
-        <v>52908.0457478286</v>
+        <v>53402.1421230011</v>
       </c>
       <c r="D24" t="n">
-        <v>48901.6113166097</v>
+        <v>50998.6870069613</v>
       </c>
       <c r="E24" t="n">
-        <v>72000.6546485167</v>
+        <v>64302.1365804254</v>
       </c>
       <c r="F24" t="n">
-        <v>76835.0222833937</v>
+        <v>68412.0869913497</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>42174</v>
       </c>
       <c r="I24" t="n">
-        <v>18399.297185182</v>
+        <v>16620.056253437</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>59192.0097255001</v>
+        <v>58283.1354065945</v>
       </c>
       <c r="C25" t="n">
-        <v>50716.7488800017</v>
+        <v>52585.5795648048</v>
       </c>
       <c r="D25" t="n">
-        <v>46629.9835449802</v>
+        <v>49607.3944191479</v>
       </c>
       <c r="E25" t="n">
-        <v>70817.990508455</v>
+        <v>64332.6244286473</v>
       </c>
       <c r="F25" t="n">
-        <v>75880.2658735512</v>
+        <v>68429.4294987836</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>42321</v>
       </c>
       <c r="I25" t="n">
-        <v>16871.0097255001</v>
+        <v>15962.1354065945</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>60543.7138746028</v>
+        <v>56429.9374978149</v>
       </c>
       <c r="C26" t="n">
-        <v>52300.8557629942</v>
+        <v>50533.7279156119</v>
       </c>
       <c r="D26" t="n">
-        <v>47906.3599230583</v>
+        <v>47571.7923406515</v>
       </c>
       <c r="E26" t="n">
-        <v>73213.6098433069</v>
+        <v>62626.2049125563</v>
       </c>
       <c r="F26" t="n">
-        <v>78510.1300577695</v>
+        <v>67339.968820829</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>39586</v>
       </c>
       <c r="I26" t="n">
-        <v>20957.7138746028</v>
+        <v>16843.9374978149</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>56259.1458209155</v>
+        <v>52164.7057346719</v>
       </c>
       <c r="C27" t="n">
-        <v>46661.8292419071</v>
+        <v>45941.5922603398</v>
       </c>
       <c r="D27" t="n">
-        <v>42365.2697394319</v>
+        <v>43363.0501972139</v>
       </c>
       <c r="E27" t="n">
-        <v>68821.4790567178</v>
+        <v>59056.8977636339</v>
       </c>
       <c r="F27" t="n">
-        <v>74358.4634342635</v>
+        <v>63717.9360768835</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>34683</v>
       </c>
       <c r="I27" t="n">
-        <v>21576.1458209155</v>
+        <v>17481.7057346719</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>65705.9864849422</v>
+        <v>64212.9680956273</v>
       </c>
       <c r="C28" t="n">
-        <v>55022.2552289671</v>
+        <v>58293.9079730728</v>
       </c>
       <c r="D28" t="n">
-        <v>53094.0993779347</v>
+        <v>55438.1504908169</v>
       </c>
       <c r="E28" t="n">
-        <v>81003.0597325326</v>
+        <v>70555.8501589741</v>
       </c>
       <c r="F28" t="n">
-        <v>86786.620619787</v>
+        <v>75090.288897544</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>46978</v>
       </c>
       <c r="I28" t="n">
-        <v>18727.9864849422</v>
+        <v>17234.9680956273</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>64334.1057696732</v>
+        <v>62424.4995027763</v>
       </c>
       <c r="C29" t="n">
-        <v>54538.739224654</v>
+        <v>56194.6213197214</v>
       </c>
       <c r="D29" t="n">
-        <v>50773.8394089413</v>
+        <v>53824.2856966431</v>
       </c>
       <c r="E29" t="n">
-        <v>79615.1198430544</v>
+        <v>69417.9686865091</v>
       </c>
       <c r="F29" t="n">
-        <v>85651.2725388889</v>
+        <v>74304.3767017031</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>39513</v>
       </c>
       <c r="I29" t="n">
-        <v>24821.1057696732</v>
+        <v>22911.4995027763</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>66903.9791264125</v>
+        <v>64875.0999273597</v>
       </c>
       <c r="C30" t="n">
-        <v>55917.1838399984</v>
+        <v>57988.5881115396</v>
       </c>
       <c r="D30" t="n">
-        <v>53252.2278087044</v>
+        <v>54832.8979677441</v>
       </c>
       <c r="E30" t="n">
-        <v>83328.7358212671</v>
+        <v>72586.3816144736</v>
       </c>
       <c r="F30" t="n">
-        <v>89623.4076315584</v>
+        <v>77240.4019866524</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>43751</v>
       </c>
       <c r="I30" t="n">
-        <v>23152.9791264125</v>
+        <v>21124.0999273597</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>65597.561444877</v>
+        <v>63575.7708165031</v>
       </c>
       <c r="C31" t="n">
-        <v>55496.0431789313</v>
+        <v>56239.2853909508</v>
       </c>
       <c r="D31" t="n">
-        <v>50837.1682451915</v>
+        <v>53906.4494213828</v>
       </c>
       <c r="E31" t="n">
-        <v>82176.8440274347</v>
+        <v>71156.6006377299</v>
       </c>
       <c r="F31" t="n">
-        <v>88735.8825171343</v>
+        <v>76870.2903674454</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>48507</v>
       </c>
       <c r="I31" t="n">
-        <v>17090.561444877</v>
+        <v>15068.7708165031</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>67939.4619071015</v>
+        <v>66566.7972212636</v>
       </c>
       <c r="C32" t="n">
-        <v>56877.9136774047</v>
+        <v>59370.122784191</v>
       </c>
       <c r="D32" t="n">
-        <v>53005.5438100203</v>
+        <v>56611.8933843534</v>
       </c>
       <c r="E32" t="n">
-        <v>85635.9824462449</v>
+        <v>74756.9802636765</v>
       </c>
       <c r="F32" t="n">
-        <v>92465.16295334</v>
+        <v>79086.0662127179</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>51391</v>
       </c>
       <c r="I32" t="n">
-        <v>16548.4619071015</v>
+        <v>15175.7972212636</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>68036.1781247012</v>
+        <v>66492.6399491652</v>
       </c>
       <c r="C33" t="n">
-        <v>57002.6903475892</v>
+        <v>59385.1782354973</v>
       </c>
       <c r="D33" t="n">
-        <v>52437.0583057454</v>
+        <v>57007.5425934683</v>
       </c>
       <c r="E33" t="n">
-        <v>86385.5424554429</v>
+        <v>75126.2747514371</v>
       </c>
       <c r="F33" t="n">
-        <v>93490.5749309538</v>
+        <v>79716.3770874597</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>50482</v>
       </c>
       <c r="I33" t="n">
-        <v>17554.1781247012</v>
+        <v>16010.6399491652</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>66199.8169031817</v>
+        <v>64930.679952511</v>
       </c>
       <c r="C34" t="n">
-        <v>56554.7382166383</v>
+        <v>57285.3718997552</v>
       </c>
       <c r="D34" t="n">
-        <v>49168.2029808981</v>
+        <v>54761.4391337447</v>
       </c>
       <c r="E34" t="n">
-        <v>84461.7326355499</v>
+        <v>72985.1116935345</v>
       </c>
       <c r="F34" t="n">
-        <v>91848.2678712901</v>
+        <v>78095.7108437408</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>44470</v>
       </c>
       <c r="I34" t="n">
-        <v>21729.8169031817</v>
+        <v>20460.679952511</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>65864.0721345294</v>
+        <v>62913.0746460297</v>
       </c>
       <c r="C35" t="n">
-        <v>55623.305158641</v>
+        <v>55090.329456318</v>
       </c>
       <c r="D35" t="n">
-        <v>47949.669856397</v>
+        <v>51719.0255112618</v>
       </c>
       <c r="E35" t="n">
-        <v>84614.9894487692</v>
+        <v>70944.640245055</v>
       </c>
       <c r="F35" t="n">
-        <v>92288.6247510133</v>
+        <v>77499.4831111846</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>39054</v>
       </c>
       <c r="I35" t="n">
-        <v>26810.0721345294</v>
+        <v>23859.0746460297</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>65261.9061617041</v>
+        <v>63692.8989186784</v>
       </c>
       <c r="C36" t="n">
-        <v>54484.0444289085</v>
+        <v>55804.01507509</v>
       </c>
       <c r="D36" t="n">
-        <v>46517.7600659048</v>
+        <v>52302.7793660559</v>
       </c>
       <c r="E36" t="n">
-        <v>84581.3831895933</v>
+        <v>72768.1953380663</v>
       </c>
       <c r="F36" t="n">
-        <v>92547.667552597</v>
+        <v>78223.7428954338</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>35152</v>
       </c>
       <c r="I36" t="n">
-        <v>30109.9061617041</v>
+        <v>28540.8989186784</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,19 +1544,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>63951.8880922485</v>
+        <v>63038.5006169676</v>
       </c>
       <c r="C37" t="n">
-        <v>52307.6251450686</v>
+        <v>54791.9818332684</v>
       </c>
       <c r="D37" t="n">
-        <v>44043.1863161889</v>
+        <v>51451.7599501916</v>
       </c>
       <c r="E37" t="n">
-        <v>83531.4182919611</v>
+        <v>72105.7015238754</v>
       </c>
       <c r="F37" t="n">
-        <v>91795.8571208409</v>
+        <v>78336.1616730517</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1565,7 +1565,7 @@
         <v>24367</v>
       </c>
       <c r="I37" t="n">
-        <v>39584.8880922485</v>
+        <v>38671.5006169676</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,19 +1576,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>65328.0936138585</v>
+        <v>60935.759451618</v>
       </c>
       <c r="C38" t="n">
-        <v>53687.1924615419</v>
+        <v>52375.9172142684</v>
       </c>
       <c r="D38" t="n">
-        <v>45119.1330335004</v>
+        <v>48779.3915835253</v>
       </c>
       <c r="E38" t="n">
-        <v>86058.0915377844</v>
+        <v>70329.2427485209</v>
       </c>
       <c r="F38" t="n">
-        <v>94626.1509658259</v>
+        <v>76813.0682463054</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1597,7 +1597,7 @@
         <v>28708</v>
       </c>
       <c r="I38" t="n">
-        <v>36620.0936138585</v>
+        <v>32227.759451618</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,19 +1608,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>61480.8929498136</v>
+        <v>56767.0048059072</v>
       </c>
       <c r="C39" t="n">
-        <v>48257.0020414814</v>
+        <v>48190.6234433265</v>
       </c>
       <c r="D39" t="n">
-        <v>39379.8912002959</v>
+        <v>44106.817255223</v>
       </c>
       <c r="E39" t="n">
-        <v>81795.5251507124</v>
+        <v>66873.2941639982</v>
       </c>
       <c r="F39" t="n">
-        <v>90672.6359918979</v>
+        <v>73817.0664839256</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         <v>43574</v>
       </c>
       <c r="I39" t="n">
-        <v>17906.8929498136</v>
+        <v>13193.0048059072</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,19 +1640,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>70369.9608311073</v>
+        <v>68885.7119725649</v>
       </c>
       <c r="C40" t="n">
-        <v>56694.2253856319</v>
+        <v>60204.8722871316</v>
       </c>
       <c r="D40" t="n">
-        <v>50187.2160337669</v>
+        <v>56022.9228751207</v>
       </c>
       <c r="E40" t="n">
-        <v>94105.3229073324</v>
+        <v>78654.9213006221</v>
       </c>
       <c r="F40" t="n">
-        <v>103296.884280844</v>
+        <v>84608.4590484726</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1661,9 +1661,297 @@
         <v>49855</v>
       </c>
       <c r="I40" t="n">
-        <v>20514.9608311073</v>
+        <v>19030.7119725649</v>
       </c>
       <c r="J40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B41" t="n">
+        <v>67102.2140075298</v>
+      </c>
+      <c r="C41" t="n">
+        <v>57855.5313826678</v>
+      </c>
+      <c r="D41" t="n">
+        <v>53278.6253191575</v>
+      </c>
+      <c r="E41" t="n">
+        <v>77536.1361002782</v>
+      </c>
+      <c r="F41" t="n">
+        <v>84156.0847879374</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="n">
+        <v>48926</v>
+      </c>
+      <c r="I41" t="n">
+        <v>18176.2140075298</v>
+      </c>
+      <c r="J41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B42" t="n">
+        <v>69300.9345617601</v>
+      </c>
+      <c r="C42" t="n">
+        <v>60060.6250384064</v>
+      </c>
+      <c r="D42" t="n">
+        <v>55809.8372893432</v>
+      </c>
+      <c r="E42" t="n">
+        <v>79817.2019374294</v>
+      </c>
+      <c r="F42" t="n">
+        <v>85776.9564344993</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
+        <v>53258</v>
+      </c>
+      <c r="I42" t="n">
+        <v>16042.9345617601</v>
+      </c>
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B43" t="n">
+        <v>68453.1127509796</v>
+      </c>
+      <c r="C43" t="n">
+        <v>58479.5643892054</v>
+      </c>
+      <c r="D43" t="n">
+        <v>53219.0733709075</v>
+      </c>
+      <c r="E43" t="n">
+        <v>79431.3546344341</v>
+      </c>
+      <c r="F43" t="n">
+        <v>86511.0982099282</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="n">
+        <v>52007</v>
+      </c>
+      <c r="I43" t="n">
+        <v>16446.1127509796</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B44" t="n">
+        <v>71497.8088136444</v>
+      </c>
+      <c r="C44" t="n">
+        <v>61918.1946378347</v>
+      </c>
+      <c r="D44" t="n">
+        <v>57515.1530664391</v>
+      </c>
+      <c r="E44" t="n">
+        <v>82233.1740001614</v>
+      </c>
+      <c r="F44" t="n">
+        <v>89717.778254</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
+        <v>58247</v>
+      </c>
+      <c r="I44" t="n">
+        <v>13250.8088136444</v>
+      </c>
+      <c r="J44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B45" t="n">
+        <v>71267.0604843359</v>
+      </c>
+      <c r="C45" t="n">
+        <v>60985.5425467457</v>
+      </c>
+      <c r="D45" t="n">
+        <v>56666.4915477757</v>
+      </c>
+      <c r="E45" t="n">
+        <v>82046.1607769485</v>
+      </c>
+      <c r="F45" t="n">
+        <v>88644.2994142459</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="n">
+        <v>61068</v>
+      </c>
+      <c r="I45" t="n">
+        <v>10199.0604843359</v>
+      </c>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B46" t="n">
+        <v>69886.0597018236</v>
+      </c>
+      <c r="C46" t="n">
+        <v>59540.6757138816</v>
+      </c>
+      <c r="D46" t="n">
+        <v>54809.4916266007</v>
+      </c>
+      <c r="E46" t="n">
+        <v>81489.3990996961</v>
+      </c>
+      <c r="F46" t="n">
+        <v>89323.8534368326</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="n">
+        <v>55767</v>
+      </c>
+      <c r="I46" t="n">
+        <v>14119.0597018236</v>
+      </c>
+      <c r="J46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B47" t="n">
+        <v>67683.8614742942</v>
+      </c>
+      <c r="C47" t="n">
+        <v>56806.7455080106</v>
+      </c>
+      <c r="D47" t="n">
+        <v>52341.2519866927</v>
+      </c>
+      <c r="E47" t="n">
+        <v>79409.3197226783</v>
+      </c>
+      <c r="F47" t="n">
+        <v>87069.8810534187</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="n">
+        <v>56981</v>
+      </c>
+      <c r="I47" t="n">
+        <v>10702.8614742942</v>
+      </c>
+      <c r="J47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B48" t="n">
+        <v>68242.537655636</v>
+      </c>
+      <c r="C48" t="n">
+        <v>57702.6299746811</v>
+      </c>
+      <c r="D48" t="n">
+        <v>52388.6327369428</v>
+      </c>
+      <c r="E48" t="n">
+        <v>79616.8898309772</v>
+      </c>
+      <c r="F48" t="n">
+        <v>88885.2483843078</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="n">
+        <v>57719</v>
+      </c>
+      <c r="I48" t="n">
+        <v>10523.537655636</v>
+      </c>
+      <c r="J48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B49" t="n">
+        <v>67580.4109722315</v>
+      </c>
+      <c r="C49" t="n">
+        <v>56140.4062794908</v>
+      </c>
+      <c r="D49" t="n">
+        <v>51463.3273045941</v>
+      </c>
+      <c r="E49" t="n">
+        <v>79457.1110495545</v>
+      </c>
+      <c r="F49" t="n">
+        <v>88153.6861401686</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" t="n">
+        <v>50823</v>
+      </c>
+      <c r="I49" t="n">
+        <v>16757.4109722315</v>
+      </c>
+      <c r="J49" t="s">
         <v>11</v>
       </c>
     </row>

--- a/outcome/appendix/data/forecast/Syphilis.xlsx
+++ b/outcome/appendix/data/forecast/Syphilis.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>47378.6253382861</v>
+        <v>47085.4806703453</v>
       </c>
       <c r="C2" t="n">
-        <v>44258.6089010572</v>
+        <v>44216.748236082</v>
       </c>
       <c r="D2" t="n">
-        <v>42944.195216362</v>
+        <v>42953.1149935269</v>
       </c>
       <c r="E2" t="n">
-        <v>50506.9989155226</v>
+        <v>49970.1868929074</v>
       </c>
       <c r="F2" t="n">
-        <v>51785.4979252216</v>
+        <v>51524.0328444507</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>39671</v>
       </c>
       <c r="I2" t="n">
-        <v>7707.62533828612</v>
+        <v>7414.48067034534</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>43025.8667711448</v>
+        <v>43066.8845958091</v>
       </c>
       <c r="C3" t="n">
-        <v>40107.3322374304</v>
+        <v>39933.0945463344</v>
       </c>
       <c r="D3" t="n">
-        <v>38828.9718637338</v>
+        <v>38328.4532336871</v>
       </c>
       <c r="E3" t="n">
-        <v>46207.1123446331</v>
+        <v>45919.1323283813</v>
       </c>
       <c r="F3" t="n">
-        <v>47956.6377474042</v>
+        <v>47886.6584193252</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>21448</v>
       </c>
       <c r="I3" t="n">
-        <v>21577.8667711448</v>
+        <v>21618.8845958091</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>55052.3721672723</v>
+        <v>55091.0211212025</v>
       </c>
       <c r="C4" t="n">
-        <v>52252.6774231719</v>
+        <v>51827.5864935733</v>
       </c>
       <c r="D4" t="n">
-        <v>50609.751938933</v>
+        <v>50441.6000735658</v>
       </c>
       <c r="E4" t="n">
-        <v>57909.5059421172</v>
+        <v>58149.5066447157</v>
       </c>
       <c r="F4" t="n">
-        <v>59625.7579332147</v>
+        <v>59738.3376920441</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>41154</v>
       </c>
       <c r="I4" t="n">
-        <v>13898.3721672723</v>
+        <v>13937.0211212025</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>53383.6310312005</v>
+        <v>53241.6992767391</v>
       </c>
       <c r="C5" t="n">
-        <v>50229.0928920009</v>
+        <v>50431.0622523336</v>
       </c>
       <c r="D5" t="n">
-        <v>48991.2620902812</v>
+        <v>48967.328458784</v>
       </c>
       <c r="E5" t="n">
-        <v>56510.3639890986</v>
+        <v>56144.660807056</v>
       </c>
       <c r="F5" t="n">
-        <v>57980.5863422412</v>
+        <v>57557.1421999023</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>46728</v>
       </c>
       <c r="I5" t="n">
-        <v>6655.63103120053</v>
+        <v>6513.69927673908</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>55591.7098738215</v>
+        <v>55531.0112475326</v>
       </c>
       <c r="C6" t="n">
-        <v>52275.7441690656</v>
+        <v>52420.1748702847</v>
       </c>
       <c r="D6" t="n">
-        <v>50849.2029044071</v>
+        <v>50665.5280205305</v>
       </c>
       <c r="E6" t="n">
-        <v>58844.0861528467</v>
+        <v>58513.6032195556</v>
       </c>
       <c r="F6" t="n">
-        <v>60587.9186614343</v>
+        <v>60866.3354641826</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>46753</v>
       </c>
       <c r="I6" t="n">
-        <v>8838.70987382154</v>
+        <v>8778.01124753258</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>54593.8509783664</v>
+        <v>54393.0499054295</v>
       </c>
       <c r="C7" t="n">
-        <v>51602.2135679059</v>
+        <v>51219.1822069231</v>
       </c>
       <c r="D7" t="n">
-        <v>49682.023411173</v>
+        <v>49516.2166197156</v>
       </c>
       <c r="E7" t="n">
-        <v>58123.4584391805</v>
+        <v>57597.5340781143</v>
       </c>
       <c r="F7" t="n">
-        <v>59865.2667852127</v>
+        <v>58644.1415857945</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>46538</v>
       </c>
       <c r="I7" t="n">
-        <v>8055.85097836643</v>
+        <v>7855.04990542948</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>57738.9944675593</v>
+        <v>57460.5961364798</v>
       </c>
       <c r="C8" t="n">
-        <v>54858.8068711971</v>
+        <v>54219.843393469</v>
       </c>
       <c r="D8" t="n">
-        <v>52845.4001086941</v>
+        <v>52519.5421076941</v>
       </c>
       <c r="E8" t="n">
-        <v>60872.7196322075</v>
+        <v>60663.123792809</v>
       </c>
       <c r="F8" t="n">
-        <v>62181.7707159336</v>
+        <v>62781.6661432243</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>46838</v>
       </c>
       <c r="I8" t="n">
-        <v>10900.9944675593</v>
+        <v>10622.5961364798</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>57219.3718618726</v>
+        <v>57392.3597753755</v>
       </c>
       <c r="C9" t="n">
-        <v>53884.5283864474</v>
+        <v>53706.1695245535</v>
       </c>
       <c r="D9" t="n">
-        <v>52464.2960883526</v>
+        <v>52322.815680212</v>
       </c>
       <c r="E9" t="n">
-        <v>60701.0358554931</v>
+        <v>60817.0952373915</v>
       </c>
       <c r="F9" t="n">
-        <v>62879.911895831</v>
+        <v>63399.4598394748</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>46838</v>
       </c>
       <c r="I9" t="n">
-        <v>10381.3718618726</v>
+        <v>10554.3597753755</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>56088.8499973912</v>
+        <v>55692.7308975688</v>
       </c>
       <c r="C10" t="n">
-        <v>52317.6927491367</v>
+        <v>52192.2916383556</v>
       </c>
       <c r="D10" t="n">
-        <v>50257.0755267404</v>
+        <v>50875.7252162057</v>
       </c>
       <c r="E10" t="n">
-        <v>59896.7835921251</v>
+        <v>59214.3185772858</v>
       </c>
       <c r="F10" t="n">
-        <v>61286.6572247318</v>
+        <v>60666.3348115707</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>48965</v>
       </c>
       <c r="I10" t="n">
-        <v>7123.84999739116</v>
+        <v>6727.73089756879</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>53645.1082240329</v>
+        <v>53700.6089689567</v>
       </c>
       <c r="C11" t="n">
-        <v>50213.9820670547</v>
+        <v>49870.4027918484</v>
       </c>
       <c r="D11" t="n">
-        <v>48656.1406841306</v>
+        <v>48312.9667533716</v>
       </c>
       <c r="E11" t="n">
-        <v>57102.1042910301</v>
+        <v>57158.5054485028</v>
       </c>
       <c r="F11" t="n">
-        <v>59434.8666358811</v>
+        <v>58906.0718529867</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>44438</v>
       </c>
       <c r="I11" t="n">
-        <v>9207.10822403286</v>
+        <v>9262.60896895666</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>54510.5937760051</v>
+        <v>54442.5455184226</v>
       </c>
       <c r="C12" t="n">
-        <v>51110.6958408147</v>
+        <v>50479.5346096517</v>
       </c>
       <c r="D12" t="n">
-        <v>49160.3113708426</v>
+        <v>49113.2640887617</v>
       </c>
       <c r="E12" t="n">
-        <v>58178.06741023</v>
+        <v>58031.827326972</v>
       </c>
       <c r="F12" t="n">
-        <v>60124.7047548273</v>
+        <v>60345.1799225802</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>45305</v>
       </c>
       <c r="I12" t="n">
-        <v>9205.5937760051</v>
+        <v>9137.54551842257</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>53557.7838367827</v>
+        <v>53740.8384892336</v>
       </c>
       <c r="C13" t="n">
-        <v>50031.2769900352</v>
+        <v>49812.3481290427</v>
       </c>
       <c r="D13" t="n">
-        <v>47473.8856517759</v>
+        <v>47642.3959567852</v>
       </c>
       <c r="E13" t="n">
-        <v>57314.5762745818</v>
+        <v>57888.8286589311</v>
       </c>
       <c r="F13" t="n">
-        <v>59981.2756326293</v>
+        <v>60001.4122988071</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>44696</v>
       </c>
       <c r="I13" t="n">
-        <v>8861.7838367827</v>
+        <v>9044.83848923361</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>51655.2930625566</v>
+        <v>51752.925847854</v>
       </c>
       <c r="C14" t="n">
-        <v>47753.0904220774</v>
+        <v>47823.2683187286</v>
       </c>
       <c r="D14" t="n">
-        <v>45158.0469320329</v>
+        <v>45850.5221439295</v>
       </c>
       <c r="E14" t="n">
-        <v>55638.6352741554</v>
+        <v>55855.8889693866</v>
       </c>
       <c r="F14" t="n">
-        <v>57968.0846887972</v>
+        <v>57323.8904776759</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>40079</v>
       </c>
       <c r="I14" t="n">
-        <v>11576.2930625566</v>
+        <v>11673.925847854</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>47774.3711156666</v>
+        <v>47636.4548995048</v>
       </c>
       <c r="C15" t="n">
-        <v>43512.4269590563</v>
+        <v>43333.2104189107</v>
       </c>
       <c r="D15" t="n">
-        <v>41322.7189570771</v>
+        <v>41733.2851788416</v>
       </c>
       <c r="E15" t="n">
-        <v>52466.512116239</v>
+        <v>52117.3229615687</v>
       </c>
       <c r="F15" t="n">
-        <v>54655.3788260016</v>
+        <v>54413.6731585922</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>33615</v>
       </c>
       <c r="I15" t="n">
-        <v>14159.3711156666</v>
+        <v>14021.4548995048</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>59780.9618500165</v>
+        <v>59702.1977628169</v>
       </c>
       <c r="C16" t="n">
-        <v>55439.2217305874</v>
+        <v>55457.6202972711</v>
       </c>
       <c r="D16" t="n">
-        <v>53697.7355767957</v>
+        <v>53876.4801318526</v>
       </c>
       <c r="E16" t="n">
-        <v>64565.4271239919</v>
+        <v>64438.966521332</v>
       </c>
       <c r="F16" t="n">
-        <v>66964.5516189288</v>
+        <v>67020.420896933</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>50682</v>
       </c>
       <c r="I16" t="n">
-        <v>9098.9618500165</v>
+        <v>9020.19776281687</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>57854.8305288418</v>
+        <v>57696.0158135821</v>
       </c>
       <c r="C17" t="n">
-        <v>53381.4043400954</v>
+        <v>53482.5670211304</v>
       </c>
       <c r="D17" t="n">
-        <v>51392.0969762608</v>
+        <v>51083.571534182</v>
       </c>
       <c r="E17" t="n">
-        <v>62719.8536571733</v>
+        <v>61965.7690175595</v>
       </c>
       <c r="F17" t="n">
-        <v>65472.2794532967</v>
+        <v>65390.4434149259</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>49113</v>
       </c>
       <c r="I17" t="n">
-        <v>8741.83052884175</v>
+        <v>8583.01581358212</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>60053.5633353662</v>
+        <v>60056.534682993</v>
       </c>
       <c r="C18" t="n">
-        <v>55748.601357814</v>
+        <v>55583.8467395754</v>
       </c>
       <c r="D18" t="n">
-        <v>53479.7961373808</v>
+        <v>52936.9806370041</v>
       </c>
       <c r="E18" t="n">
-        <v>64780.731633121</v>
+        <v>64772.7419410687</v>
       </c>
       <c r="F18" t="n">
-        <v>67926.034349203</v>
+        <v>67729.5086260566</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>47999</v>
       </c>
       <c r="I18" t="n">
-        <v>12054.5633353662</v>
+        <v>12057.534682993</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>59015.9973798452</v>
+        <v>58939.9470884606</v>
       </c>
       <c r="C19" t="n">
-        <v>54312.5749372387</v>
+        <v>54180.4703799317</v>
       </c>
       <c r="D19" t="n">
-        <v>52004.3884020258</v>
+        <v>52006.8041371132</v>
       </c>
       <c r="E19" t="n">
-        <v>63986.1507722805</v>
+        <v>63799.3595328197</v>
       </c>
       <c r="F19" t="n">
-        <v>67879.3786643706</v>
+        <v>66835.8933179089</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>47423</v>
       </c>
       <c r="I19" t="n">
-        <v>11592.9973798452</v>
+        <v>11516.9470884606</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>62198.4407575884</v>
+        <v>62235.5709475022</v>
       </c>
       <c r="C20" t="n">
-        <v>57591.3563333161</v>
+        <v>57502.3706243095</v>
       </c>
       <c r="D20" t="n">
-        <v>54651.2778754275</v>
+        <v>55346.2010445437</v>
       </c>
       <c r="E20" t="n">
-        <v>67409.753387369</v>
+        <v>66956.7454982061</v>
       </c>
       <c r="F20" t="n">
-        <v>70869.1216625966</v>
+        <v>71713.7841016022</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>51531</v>
       </c>
       <c r="I20" t="n">
-        <v>10667.4407575884</v>
+        <v>10704.5709475022</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>62158.4565549613</v>
+        <v>61857.9955283887</v>
       </c>
       <c r="C21" t="n">
-        <v>57117.0353835195</v>
+        <v>56498.2152229915</v>
       </c>
       <c r="D21" t="n">
-        <v>55462.9019703305</v>
+        <v>53958.1352921835</v>
       </c>
       <c r="E21" t="n">
-        <v>67705.2708420498</v>
+        <v>67384.6214091366</v>
       </c>
       <c r="F21" t="n">
-        <v>72221.1299020001</v>
+        <v>70385.6347698539</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>46091</v>
       </c>
       <c r="I21" t="n">
-        <v>16067.4565549613</v>
+        <v>15766.9955283887</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>60378.2911176507</v>
+        <v>60459.1951212273</v>
       </c>
       <c r="C22" t="n">
-        <v>55255.8721082387</v>
+        <v>55393.5427003576</v>
       </c>
       <c r="D22" t="n">
-        <v>53424.4544559397</v>
+        <v>53109.0952454099</v>
       </c>
       <c r="E22" t="n">
-        <v>66078.6103525855</v>
+        <v>66089.8324656846</v>
       </c>
       <c r="F22" t="n">
-        <v>70177.088430558</v>
+        <v>69322.1461459097</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>45792</v>
       </c>
       <c r="I22" t="n">
-        <v>14586.2911176507</v>
+        <v>14667.1951212273</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>58276.0251940567</v>
+        <v>58109.668206077</v>
       </c>
       <c r="C23" t="n">
-        <v>53257.792324169</v>
+        <v>52900.1544237547</v>
       </c>
       <c r="D23" t="n">
-        <v>51050.2050142188</v>
+        <v>50093.7428149332</v>
       </c>
       <c r="E23" t="n">
-        <v>64185.8959592923</v>
+        <v>63266.6227790471</v>
       </c>
       <c r="F23" t="n">
-        <v>67838.0508186341</v>
+        <v>66675.8619718157</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>40900</v>
       </c>
       <c r="I23" t="n">
-        <v>17376.0251940567</v>
+        <v>17209.668206077</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>58794.056253437</v>
+        <v>58950.3288438339</v>
       </c>
       <c r="C24" t="n">
-        <v>53402.1421230011</v>
+        <v>53572.7121996738</v>
       </c>
       <c r="D24" t="n">
-        <v>50998.6870069613</v>
+        <v>51111.0030509619</v>
       </c>
       <c r="E24" t="n">
-        <v>64302.1365804254</v>
+        <v>65009.9615917451</v>
       </c>
       <c r="F24" t="n">
-        <v>68412.0869913497</v>
+        <v>68261.5259367547</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>42174</v>
       </c>
       <c r="I24" t="n">
-        <v>16620.056253437</v>
+        <v>16776.3288438339</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>58283.1354065945</v>
+        <v>58028.3166437952</v>
       </c>
       <c r="C25" t="n">
-        <v>52585.5795648048</v>
+        <v>51851.7404653798</v>
       </c>
       <c r="D25" t="n">
-        <v>49607.3944191479</v>
+        <v>49387.1313620865</v>
       </c>
       <c r="E25" t="n">
-        <v>64332.6244286473</v>
+        <v>63882.4616949661</v>
       </c>
       <c r="F25" t="n">
-        <v>68429.4294987836</v>
+        <v>67226.882394528</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>42321</v>
       </c>
       <c r="I25" t="n">
-        <v>15962.1354065945</v>
+        <v>15707.3166437952</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>56429.9374978149</v>
+        <v>56167.5253718172</v>
       </c>
       <c r="C26" t="n">
-        <v>50533.7279156119</v>
+        <v>50642.4291177165</v>
       </c>
       <c r="D26" t="n">
-        <v>47571.7923406515</v>
+        <v>47280.4559063006</v>
       </c>
       <c r="E26" t="n">
-        <v>62626.2049125563</v>
+        <v>62422.713996442</v>
       </c>
       <c r="F26" t="n">
-        <v>67339.968820829</v>
+        <v>66816.4896222421</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>39586</v>
       </c>
       <c r="I26" t="n">
-        <v>16843.9374978149</v>
+        <v>16581.5253718172</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>52164.7057346719</v>
+        <v>52128.2825889826</v>
       </c>
       <c r="C27" t="n">
-        <v>45941.5922603398</v>
+        <v>45804.0071583137</v>
       </c>
       <c r="D27" t="n">
-        <v>43363.0501972139</v>
+        <v>43771.1440854514</v>
       </c>
       <c r="E27" t="n">
-        <v>59056.8977636339</v>
+        <v>58268.866389862</v>
       </c>
       <c r="F27" t="n">
-        <v>63717.9360768835</v>
+        <v>63530.3245377987</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>34683</v>
       </c>
       <c r="I27" t="n">
-        <v>17481.7057346719</v>
+        <v>17445.2825889826</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>64212.9680956273</v>
+        <v>64029.3757963539</v>
       </c>
       <c r="C28" t="n">
-        <v>58293.9079730728</v>
+        <v>57868.8705365098</v>
       </c>
       <c r="D28" t="n">
-        <v>55438.1504908169</v>
+        <v>54471.8453276492</v>
       </c>
       <c r="E28" t="n">
-        <v>70555.8501589741</v>
+        <v>70669.3432707031</v>
       </c>
       <c r="F28" t="n">
-        <v>75090.288897544</v>
+        <v>75246.1449426453</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>46978</v>
       </c>
       <c r="I28" t="n">
-        <v>17234.9680956273</v>
+        <v>17051.3757963539</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>62424.4995027763</v>
+        <v>62216.754143926</v>
       </c>
       <c r="C29" t="n">
-        <v>56194.6213197214</v>
+        <v>55531.8896642579</v>
       </c>
       <c r="D29" t="n">
-        <v>53824.2856966431</v>
+        <v>53510.1169354905</v>
       </c>
       <c r="E29" t="n">
-        <v>69417.9686865091</v>
+        <v>68956.4976092833</v>
       </c>
       <c r="F29" t="n">
-        <v>74304.3767017031</v>
+        <v>72904.7688887809</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>39513</v>
       </c>
       <c r="I29" t="n">
-        <v>22911.4995027763</v>
+        <v>22703.754143926</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>64875.0999273597</v>
+        <v>64495.538978979</v>
       </c>
       <c r="C30" t="n">
-        <v>57988.5881115396</v>
+        <v>58163.8261693432</v>
       </c>
       <c r="D30" t="n">
-        <v>54832.8979677441</v>
+        <v>55030.0282570626</v>
       </c>
       <c r="E30" t="n">
-        <v>72586.3816144736</v>
+        <v>71052.2469704111</v>
       </c>
       <c r="F30" t="n">
-        <v>77240.4019866524</v>
+        <v>75283.7257405675</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>43751</v>
       </c>
       <c r="I30" t="n">
-        <v>21124.0999273597</v>
+        <v>20744.538978979</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>63575.7708165031</v>
+        <v>63305.6839984806</v>
       </c>
       <c r="C31" t="n">
-        <v>56239.2853909508</v>
+        <v>56210.5056748981</v>
       </c>
       <c r="D31" t="n">
-        <v>53906.4494213828</v>
+        <v>53580.4713307117</v>
       </c>
       <c r="E31" t="n">
-        <v>71156.6006377299</v>
+        <v>70814.6060990479</v>
       </c>
       <c r="F31" t="n">
-        <v>76870.2903674454</v>
+        <v>75758.6888476029</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>48507</v>
       </c>
       <c r="I31" t="n">
-        <v>15068.7708165031</v>
+        <v>14798.6839984806</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>66566.7972212636</v>
+        <v>66754.6722675483</v>
       </c>
       <c r="C32" t="n">
-        <v>59370.122784191</v>
+        <v>59916.1766049212</v>
       </c>
       <c r="D32" t="n">
-        <v>56611.8933843534</v>
+        <v>57064.0805618762</v>
       </c>
       <c r="E32" t="n">
-        <v>74756.9802636765</v>
+        <v>73569.2574864791</v>
       </c>
       <c r="F32" t="n">
-        <v>79086.0662127179</v>
+        <v>77394.2449739952</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>51391</v>
       </c>
       <c r="I32" t="n">
-        <v>15175.7972212636</v>
+        <v>15363.6722675483</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>66492.6399491652</v>
+        <v>66535.6048567546</v>
       </c>
       <c r="C33" t="n">
-        <v>59385.1782354973</v>
+        <v>59344.3939086296</v>
       </c>
       <c r="D33" t="n">
-        <v>57007.5425934683</v>
+        <v>56445.8263135711</v>
       </c>
       <c r="E33" t="n">
-        <v>75126.2747514371</v>
+        <v>74346.6390159829</v>
       </c>
       <c r="F33" t="n">
-        <v>79716.3770874597</v>
+        <v>79221.3345221238</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>50482</v>
       </c>
       <c r="I33" t="n">
-        <v>16010.6399491652</v>
+        <v>16053.6048567546</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>64930.679952511</v>
+        <v>64885.3992836071</v>
       </c>
       <c r="C34" t="n">
-        <v>57285.3718997552</v>
+        <v>57325.0250317923</v>
       </c>
       <c r="D34" t="n">
-        <v>54761.4391337447</v>
+        <v>54496.5508159403</v>
       </c>
       <c r="E34" t="n">
-        <v>72985.1116935345</v>
+        <v>73007.47685198</v>
       </c>
       <c r="F34" t="n">
-        <v>78095.7108437408</v>
+        <v>76688.920878683</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>44470</v>
       </c>
       <c r="I34" t="n">
-        <v>20460.679952511</v>
+        <v>20415.3992836071</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>62913.0746460297</v>
+        <v>62569.1648795331</v>
       </c>
       <c r="C35" t="n">
-        <v>55090.329456318</v>
+        <v>55030.4011915699</v>
       </c>
       <c r="D35" t="n">
-        <v>51719.0255112618</v>
+        <v>51406.3624435809</v>
       </c>
       <c r="E35" t="n">
-        <v>70944.640245055</v>
+        <v>70472.5811346457</v>
       </c>
       <c r="F35" t="n">
-        <v>77499.4831111846</v>
+        <v>76161.2430412721</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>39054</v>
       </c>
       <c r="I35" t="n">
-        <v>23859.0746460297</v>
+        <v>23515.1648795331</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>63692.8989186784</v>
+        <v>63389.9709796326</v>
       </c>
       <c r="C36" t="n">
-        <v>55804.01507509</v>
+        <v>56255.5487957167</v>
       </c>
       <c r="D36" t="n">
-        <v>52302.7793660559</v>
+        <v>52038.4843625456</v>
       </c>
       <c r="E36" t="n">
-        <v>72768.1953380663</v>
+        <v>71957.8515075191</v>
       </c>
       <c r="F36" t="n">
-        <v>78223.7428954338</v>
+        <v>76827.5093927025</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>35152</v>
       </c>
       <c r="I36" t="n">
-        <v>28540.8989186784</v>
+        <v>28237.9709796326</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,19 +1544,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>63038.5006169676</v>
+        <v>62576.2157168276</v>
       </c>
       <c r="C37" t="n">
-        <v>54791.9818332684</v>
+        <v>54745.2610299956</v>
       </c>
       <c r="D37" t="n">
-        <v>51451.7599501916</v>
+        <v>50573.7059800937</v>
       </c>
       <c r="E37" t="n">
-        <v>72105.7015238754</v>
+        <v>71509.7033068215</v>
       </c>
       <c r="F37" t="n">
-        <v>78336.1616730517</v>
+        <v>77144.6573193589</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1565,7 +1565,7 @@
         <v>24367</v>
       </c>
       <c r="I37" t="n">
-        <v>38671.5006169676</v>
+        <v>38209.2157168276</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,19 +1576,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>60935.759451618</v>
+        <v>60623.1159151093</v>
       </c>
       <c r="C38" t="n">
-        <v>52375.9172142684</v>
+        <v>52318.4269104159</v>
       </c>
       <c r="D38" t="n">
-        <v>48779.3915835253</v>
+        <v>47568.091104232</v>
       </c>
       <c r="E38" t="n">
-        <v>70329.2427485209</v>
+        <v>69386.2826965825</v>
       </c>
       <c r="F38" t="n">
-        <v>76813.0682463054</v>
+        <v>75675.9503693311</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1597,7 +1597,7 @@
         <v>28708</v>
       </c>
       <c r="I38" t="n">
-        <v>32227.759451618</v>
+        <v>31915.1159151093</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,19 +1608,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>56767.0048059072</v>
+        <v>56619.7944068261</v>
       </c>
       <c r="C39" t="n">
-        <v>48190.6234433265</v>
+        <v>48127.0390728046</v>
       </c>
       <c r="D39" t="n">
-        <v>44106.817255223</v>
+        <v>44438.6192440764</v>
       </c>
       <c r="E39" t="n">
-        <v>66873.2941639982</v>
+        <v>66617.0502703986</v>
       </c>
       <c r="F39" t="n">
-        <v>73817.0664839256</v>
+        <v>72347.2178640182</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         <v>43574</v>
       </c>
       <c r="I39" t="n">
-        <v>13193.0048059072</v>
+        <v>13045.7944068261</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,19 +1640,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>68885.7119725649</v>
+        <v>68380.5722034601</v>
       </c>
       <c r="C40" t="n">
-        <v>60204.8722871316</v>
+        <v>59199.2432733549</v>
       </c>
       <c r="D40" t="n">
-        <v>56022.9228751207</v>
+        <v>54484.3523934646</v>
       </c>
       <c r="E40" t="n">
-        <v>78654.9213006221</v>
+        <v>78499.2239045103</v>
       </c>
       <c r="F40" t="n">
-        <v>84608.4590484726</v>
+        <v>84135.4722555639</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1661,7 +1661,7 @@
         <v>49855</v>
       </c>
       <c r="I40" t="n">
-        <v>19030.7119725649</v>
+        <v>18525.5722034601</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1672,19 +1672,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>67102.2140075298</v>
+        <v>66798.5658572371</v>
       </c>
       <c r="C41" t="n">
-        <v>57855.5313826678</v>
+        <v>57337.736202498</v>
       </c>
       <c r="D41" t="n">
-        <v>53278.6253191575</v>
+        <v>54179.9275846007</v>
       </c>
       <c r="E41" t="n">
-        <v>77536.1361002782</v>
+        <v>76729.2282067639</v>
       </c>
       <c r="F41" t="n">
-        <v>84156.0847879374</v>
+        <v>83303.5747133392</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1693,7 +1693,7 @@
         <v>48926</v>
       </c>
       <c r="I41" t="n">
-        <v>18176.2140075298</v>
+        <v>17872.5658572371</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1704,19 +1704,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>69300.9345617601</v>
+        <v>68902.9649081726</v>
       </c>
       <c r="C42" t="n">
-        <v>60060.6250384064</v>
+        <v>59832.0304810166</v>
       </c>
       <c r="D42" t="n">
-        <v>55809.8372893432</v>
+        <v>55740.0182348459</v>
       </c>
       <c r="E42" t="n">
-        <v>79817.2019374294</v>
+        <v>77953.5527701705</v>
       </c>
       <c r="F42" t="n">
-        <v>85776.9564344993</v>
+        <v>84537.6482381488</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1725,7 +1725,7 @@
         <v>53258</v>
       </c>
       <c r="I42" t="n">
-        <v>16042.9345617601</v>
+        <v>15644.9649081726</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1736,19 +1736,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>68453.1127509796</v>
+        <v>67867.2865526515</v>
       </c>
       <c r="C43" t="n">
-        <v>58479.5643892054</v>
+        <v>58658.0431433288</v>
       </c>
       <c r="D43" t="n">
-        <v>53219.0733709075</v>
+        <v>53945.4203816324</v>
       </c>
       <c r="E43" t="n">
-        <v>79431.3546344341</v>
+        <v>78232.1459507799</v>
       </c>
       <c r="F43" t="n">
-        <v>86511.0982099282</v>
+        <v>84572.7450951986</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1757,7 +1757,7 @@
         <v>52007</v>
       </c>
       <c r="I43" t="n">
-        <v>16446.1127509796</v>
+        <v>15860.2865526515</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1768,19 +1768,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>71497.8088136444</v>
+        <v>71100.0554453219</v>
       </c>
       <c r="C44" t="n">
-        <v>61918.1946378347</v>
+        <v>60709.8607927292</v>
       </c>
       <c r="D44" t="n">
-        <v>57515.1530664391</v>
+        <v>56271.775977891</v>
       </c>
       <c r="E44" t="n">
-        <v>82233.1740001614</v>
+        <v>80885.0935443099</v>
       </c>
       <c r="F44" t="n">
-        <v>89717.778254</v>
+        <v>88381.6480093843</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1789,7 +1789,7 @@
         <v>58247</v>
       </c>
       <c r="I44" t="n">
-        <v>13250.8088136444</v>
+        <v>12853.0554453219</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1800,19 +1800,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>71267.0604843359</v>
+        <v>70998.5742833524</v>
       </c>
       <c r="C45" t="n">
-        <v>60985.5425467457</v>
+        <v>60564.3089431272</v>
       </c>
       <c r="D45" t="n">
-        <v>56666.4915477757</v>
+        <v>55415.2972901323</v>
       </c>
       <c r="E45" t="n">
-        <v>82046.1607769485</v>
+        <v>82151.1211507535</v>
       </c>
       <c r="F45" t="n">
-        <v>88644.2994142459</v>
+        <v>88467.6024538327</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1821,7 +1821,7 @@
         <v>61068</v>
       </c>
       <c r="I45" t="n">
-        <v>10199.0604843359</v>
+        <v>9930.57428335235</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1832,19 +1832,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>69886.0597018236</v>
+        <v>69271.068661892</v>
       </c>
       <c r="C46" t="n">
-        <v>59540.6757138816</v>
+        <v>59721.5905626494</v>
       </c>
       <c r="D46" t="n">
-        <v>54809.4916266007</v>
+        <v>54028.2041740505</v>
       </c>
       <c r="E46" t="n">
-        <v>81489.3990996961</v>
+        <v>80240.8559091298</v>
       </c>
       <c r="F46" t="n">
-        <v>89323.8534368326</v>
+        <v>89651.5443627852</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1853,7 +1853,7 @@
         <v>55767</v>
       </c>
       <c r="I46" t="n">
-        <v>14119.0597018236</v>
+        <v>13504.068661892</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1864,19 +1864,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>67683.8614742942</v>
+        <v>67084.4265542561</v>
       </c>
       <c r="C47" t="n">
-        <v>56806.7455080106</v>
+        <v>56762.6767330858</v>
       </c>
       <c r="D47" t="n">
-        <v>52341.2519866927</v>
+        <v>50554.3963373985</v>
       </c>
       <c r="E47" t="n">
-        <v>79409.3197226783</v>
+        <v>78491.1282096379</v>
       </c>
       <c r="F47" t="n">
-        <v>87069.8810534187</v>
+        <v>88093.5693552362</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1885,7 +1885,7 @@
         <v>56981</v>
       </c>
       <c r="I47" t="n">
-        <v>10702.8614742942</v>
+        <v>10103.4265542561</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1896,19 +1896,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>68242.537655636</v>
+        <v>67767.2136484759</v>
       </c>
       <c r="C48" t="n">
-        <v>57702.6299746811</v>
+        <v>57098.5074517711</v>
       </c>
       <c r="D48" t="n">
-        <v>52388.6327369428</v>
+        <v>49082.7598664935</v>
       </c>
       <c r="E48" t="n">
-        <v>79616.8898309772</v>
+        <v>79382.1339034743</v>
       </c>
       <c r="F48" t="n">
-        <v>88885.2483843078</v>
+        <v>87130.6253084502</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1917,7 +1917,7 @@
         <v>57719</v>
       </c>
       <c r="I48" t="n">
-        <v>10523.537655636</v>
+        <v>10048.2136484759</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1928,19 +1928,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>67580.4109722315</v>
+        <v>67007.2236362612</v>
       </c>
       <c r="C49" t="n">
-        <v>56140.4062794908</v>
+        <v>55350.2525700962</v>
       </c>
       <c r="D49" t="n">
-        <v>51463.3273045941</v>
+        <v>50133.9325589564</v>
       </c>
       <c r="E49" t="n">
-        <v>79457.1110495545</v>
+        <v>78603.6738013305</v>
       </c>
       <c r="F49" t="n">
-        <v>88153.6861401686</v>
+        <v>88658.0553782918</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1949,7 +1949,7 @@
         <v>50823</v>
       </c>
       <c r="I49" t="n">
-        <v>16757.4109722315</v>
+        <v>16184.2236362612</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/data/forecast/Syphilis.xlsx
+++ b/outcome/appendix/data/forecast/Syphilis.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>47085.4806703453</v>
+        <v>47377.6305249977</v>
       </c>
       <c r="C2" t="n">
-        <v>44216.748236082</v>
+        <v>44256.1439305998</v>
       </c>
       <c r="D2" t="n">
-        <v>42953.1149935269</v>
+        <v>42941.3767244925</v>
       </c>
       <c r="E2" t="n">
-        <v>49970.1868929074</v>
+        <v>50504.922167476</v>
       </c>
       <c r="F2" t="n">
-        <v>51524.0328444507</v>
+        <v>51785.2808805457</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>39671</v>
       </c>
       <c r="I2" t="n">
-        <v>7414.48067034534</v>
+        <v>7706.63052499769</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>43066.8845958091</v>
+        <v>43026.6166306937</v>
       </c>
       <c r="C3" t="n">
-        <v>39933.0945463344</v>
+        <v>40105.1924707409</v>
       </c>
       <c r="D3" t="n">
-        <v>38328.4532336871</v>
+        <v>38825.6604043489</v>
       </c>
       <c r="E3" t="n">
-        <v>45919.1323283813</v>
+        <v>46205.9772318863</v>
       </c>
       <c r="F3" t="n">
-        <v>47886.6584193252</v>
+        <v>47959.1678450883</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>21448</v>
       </c>
       <c r="I3" t="n">
-        <v>21618.8845958091</v>
+        <v>21578.6166306937</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>55091.0211212025</v>
+        <v>55073.0693042036</v>
       </c>
       <c r="C4" t="n">
-        <v>51827.5864935733</v>
+        <v>52271.8688744327</v>
       </c>
       <c r="D4" t="n">
-        <v>50441.6000735658</v>
+        <v>50628.3222592302</v>
       </c>
       <c r="E4" t="n">
-        <v>58149.5066447157</v>
+        <v>57929.4369352871</v>
       </c>
       <c r="F4" t="n">
-        <v>59738.3376920441</v>
+        <v>59653.3211584392</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>41154</v>
       </c>
       <c r="I4" t="n">
-        <v>13937.0211212025</v>
+        <v>13919.0693042036</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>53241.6992767391</v>
+        <v>53384.7277095102</v>
       </c>
       <c r="C5" t="n">
-        <v>50431.0622523336</v>
+        <v>50228.7973194427</v>
       </c>
       <c r="D5" t="n">
-        <v>48967.328458784</v>
+        <v>48989.1192817095</v>
       </c>
       <c r="E5" t="n">
-        <v>56144.660807056</v>
+        <v>56511.9209082049</v>
       </c>
       <c r="F5" t="n">
-        <v>57557.1421999023</v>
+        <v>57977.1834999643</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>46728</v>
       </c>
       <c r="I5" t="n">
-        <v>6513.69927673908</v>
+        <v>6656.72770951022</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>55531.0112475326</v>
+        <v>55591.5455102463</v>
       </c>
       <c r="C6" t="n">
-        <v>52420.1748702847</v>
+        <v>52272.7124423955</v>
       </c>
       <c r="D6" t="n">
-        <v>50665.5280205305</v>
+        <v>50848.3315406416</v>
       </c>
       <c r="E6" t="n">
-        <v>58513.6032195556</v>
+        <v>58844.7238873291</v>
       </c>
       <c r="F6" t="n">
-        <v>60866.3354641826</v>
+        <v>60591.1082308118</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>46753</v>
       </c>
       <c r="I6" t="n">
-        <v>8778.01124753258</v>
+        <v>8838.54551024627</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>54393.0499054295</v>
+        <v>54593.7558844007</v>
       </c>
       <c r="C7" t="n">
-        <v>51219.1822069231</v>
+        <v>51602.3012246148</v>
       </c>
       <c r="D7" t="n">
-        <v>49516.2166197156</v>
+        <v>49682.3056955154</v>
       </c>
       <c r="E7" t="n">
-        <v>57597.5340781143</v>
+        <v>58122.7751001491</v>
       </c>
       <c r="F7" t="n">
-        <v>58644.1415857945</v>
+        <v>59865.0108354975</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>46538</v>
       </c>
       <c r="I7" t="n">
-        <v>7855.04990542948</v>
+        <v>8055.75588440069</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>57460.5961364798</v>
+        <v>57739.0850139762</v>
       </c>
       <c r="C8" t="n">
-        <v>54219.843393469</v>
+        <v>54858.5122042256</v>
       </c>
       <c r="D8" t="n">
-        <v>52519.5421076941</v>
+        <v>52844.231337777</v>
       </c>
       <c r="E8" t="n">
-        <v>60663.123792809</v>
+        <v>60870.3932253923</v>
       </c>
       <c r="F8" t="n">
-        <v>62781.6661432243</v>
+        <v>62179.133350794</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>46838</v>
       </c>
       <c r="I8" t="n">
-        <v>10622.5961364798</v>
+        <v>10901.0850139762</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>57392.3597753755</v>
+        <v>57219.3690222873</v>
       </c>
       <c r="C9" t="n">
-        <v>53706.1695245535</v>
+        <v>53884.2315385947</v>
       </c>
       <c r="D9" t="n">
-        <v>52322.815680212</v>
+        <v>52463.2639026098</v>
       </c>
       <c r="E9" t="n">
-        <v>60817.0952373915</v>
+        <v>60696.6940306131</v>
       </c>
       <c r="F9" t="n">
-        <v>63399.4598394748</v>
+        <v>62877.1563856213</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>46838</v>
       </c>
       <c r="I9" t="n">
-        <v>10554.3597753755</v>
+        <v>10381.3690222873</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>55692.7308975688</v>
+        <v>56089.313319146</v>
       </c>
       <c r="C10" t="n">
-        <v>52192.2916383556</v>
+        <v>52322.4033761493</v>
       </c>
       <c r="D10" t="n">
-        <v>50875.7252162057</v>
+        <v>50257.5371745949</v>
       </c>
       <c r="E10" t="n">
-        <v>59214.3185772858</v>
+        <v>59896.6873536834</v>
       </c>
       <c r="F10" t="n">
-        <v>60666.3348115707</v>
+        <v>61297.9966771065</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>48965</v>
       </c>
       <c r="I10" t="n">
-        <v>6727.73089756879</v>
+        <v>7124.31331914599</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>53700.6089689567</v>
+        <v>53645.6779770327</v>
       </c>
       <c r="C11" t="n">
-        <v>49870.4027918484</v>
+        <v>50218.7581166345</v>
       </c>
       <c r="D11" t="n">
-        <v>48312.9667533716</v>
+        <v>48651.8394535332</v>
       </c>
       <c r="E11" t="n">
-        <v>57158.5054485028</v>
+        <v>57106.8210909642</v>
       </c>
       <c r="F11" t="n">
-        <v>58906.0718529867</v>
+        <v>59430.3640327958</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>44438</v>
       </c>
       <c r="I11" t="n">
-        <v>9262.60896895666</v>
+        <v>9207.67797703268</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>54442.5455184226</v>
+        <v>54511.1663620759</v>
       </c>
       <c r="C12" t="n">
-        <v>50479.5346096517</v>
+        <v>51108.7090531317</v>
       </c>
       <c r="D12" t="n">
-        <v>49113.2640887617</v>
+        <v>49155.383948416</v>
       </c>
       <c r="E12" t="n">
-        <v>58031.827326972</v>
+        <v>58173.7913465289</v>
       </c>
       <c r="F12" t="n">
-        <v>60345.1799225802</v>
+        <v>60119.4327895149</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>45305</v>
       </c>
       <c r="I12" t="n">
-        <v>9137.54551842257</v>
+        <v>9206.16636207588</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>53740.8384892336</v>
+        <v>53558.8522038347</v>
       </c>
       <c r="C13" t="n">
-        <v>49812.3481290427</v>
+        <v>50028.9137590959</v>
       </c>
       <c r="D13" t="n">
-        <v>47642.3959567852</v>
+        <v>47481.1053855387</v>
       </c>
       <c r="E13" t="n">
-        <v>57888.8286589311</v>
+        <v>57317.3909076384</v>
       </c>
       <c r="F13" t="n">
-        <v>60001.4122988071</v>
+        <v>59983.861659092</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>44696</v>
       </c>
       <c r="I13" t="n">
-        <v>9044.83848923361</v>
+        <v>8862.85220383471</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>51752.925847854</v>
+        <v>51656.4947787381</v>
       </c>
       <c r="C14" t="n">
-        <v>47823.2683187286</v>
+        <v>47748.2809753541</v>
       </c>
       <c r="D14" t="n">
-        <v>45850.5221439295</v>
+        <v>45155.1877031402</v>
       </c>
       <c r="E14" t="n">
-        <v>55855.8889693866</v>
+        <v>55642.8977001954</v>
       </c>
       <c r="F14" t="n">
-        <v>57323.8904776759</v>
+        <v>57965.5940413005</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>40079</v>
       </c>
       <c r="I14" t="n">
-        <v>11673.925847854</v>
+        <v>11577.4947787381</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>47636.4548995048</v>
+        <v>47777.338816223</v>
       </c>
       <c r="C15" t="n">
-        <v>43333.2104189107</v>
+        <v>43515.7120355144</v>
       </c>
       <c r="D15" t="n">
-        <v>41733.2851788416</v>
+        <v>41325.4354739775</v>
       </c>
       <c r="E15" t="n">
-        <v>52117.3229615687</v>
+        <v>52470.2712397906</v>
       </c>
       <c r="F15" t="n">
-        <v>54413.6731585922</v>
+        <v>54658.3375532141</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>33615</v>
       </c>
       <c r="I15" t="n">
-        <v>14021.4548995048</v>
+        <v>14162.338816223</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>59702.1977628169</v>
+        <v>59803.9481834524</v>
       </c>
       <c r="C16" t="n">
-        <v>55457.6202972711</v>
+        <v>55466.0651993944</v>
       </c>
       <c r="D16" t="n">
-        <v>53876.4801318526</v>
+        <v>53718.4296438109</v>
       </c>
       <c r="E16" t="n">
-        <v>64438.966521332</v>
+        <v>64583.535910697</v>
       </c>
       <c r="F16" t="n">
-        <v>67020.420896933</v>
+        <v>66984.1760021189</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>50682</v>
       </c>
       <c r="I16" t="n">
-        <v>9020.19776281687</v>
+        <v>9121.94818345238</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>57696.0158135821</v>
+        <v>57858.1579783155</v>
       </c>
       <c r="C17" t="n">
-        <v>53482.5670211304</v>
+        <v>53382.2773209687</v>
       </c>
       <c r="D17" t="n">
-        <v>51083.571534182</v>
+        <v>51401.2630511606</v>
       </c>
       <c r="E17" t="n">
-        <v>61965.7690175595</v>
+        <v>62711.3543808102</v>
       </c>
       <c r="F17" t="n">
-        <v>65390.4434149259</v>
+        <v>65473.0454427521</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>49113</v>
       </c>
       <c r="I17" t="n">
-        <v>8583.01581358212</v>
+        <v>8745.15797831549</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>60056.534682993</v>
+        <v>60055.6252029537</v>
       </c>
       <c r="C18" t="n">
-        <v>55583.8467395754</v>
+        <v>55749.8077425803</v>
       </c>
       <c r="D18" t="n">
-        <v>52936.9806370041</v>
+        <v>53481.8125351424</v>
       </c>
       <c r="E18" t="n">
-        <v>64772.7419410687</v>
+        <v>64782.6475750428</v>
       </c>
       <c r="F18" t="n">
-        <v>67729.5086260566</v>
+        <v>67922.3447628873</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>47999</v>
       </c>
       <c r="I18" t="n">
-        <v>12057.534682993</v>
+        <v>12056.6252029537</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>58939.9470884606</v>
+        <v>59018.1392875617</v>
       </c>
       <c r="C19" t="n">
-        <v>54180.4703799317</v>
+        <v>54316.7237303858</v>
       </c>
       <c r="D19" t="n">
-        <v>52006.8041371132</v>
+        <v>52009.3595488637</v>
       </c>
       <c r="E19" t="n">
-        <v>63799.3595328197</v>
+        <v>63987.5543325602</v>
       </c>
       <c r="F19" t="n">
-        <v>66835.8933179089</v>
+        <v>67873.233406265</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>47423</v>
       </c>
       <c r="I19" t="n">
-        <v>11516.9470884606</v>
+        <v>11595.1392875617</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>62235.5709475022</v>
+        <v>62200.8167855494</v>
       </c>
       <c r="C20" t="n">
-        <v>57502.3706243095</v>
+        <v>57591.9238463841</v>
       </c>
       <c r="D20" t="n">
-        <v>55346.2010445437</v>
+        <v>54654.5523874269</v>
       </c>
       <c r="E20" t="n">
-        <v>66956.7454982061</v>
+        <v>67407.7224322063</v>
       </c>
       <c r="F20" t="n">
-        <v>71713.7841016022</v>
+        <v>70875.8523137159</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>51531</v>
       </c>
       <c r="I20" t="n">
-        <v>10704.5709475022</v>
+        <v>10669.8167855494</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>61857.9955283887</v>
+        <v>62160.6622664374</v>
       </c>
       <c r="C21" t="n">
-        <v>56498.2152229915</v>
+        <v>57114.1131935821</v>
       </c>
       <c r="D21" t="n">
-        <v>53958.1352921835</v>
+        <v>55460.462887275</v>
       </c>
       <c r="E21" t="n">
-        <v>67384.6214091366</v>
+        <v>67703.7449092296</v>
       </c>
       <c r="F21" t="n">
-        <v>70385.6347698539</v>
+        <v>72218.7123538553</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>46091</v>
       </c>
       <c r="I21" t="n">
-        <v>15766.9955283887</v>
+        <v>16069.6622664374</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>60459.1951212273</v>
+        <v>60380.9769885325</v>
       </c>
       <c r="C22" t="n">
-        <v>55393.5427003576</v>
+        <v>55258.8974259934</v>
       </c>
       <c r="D22" t="n">
-        <v>53109.0952454099</v>
+        <v>53426.1344434267</v>
       </c>
       <c r="E22" t="n">
-        <v>66089.8324656846</v>
+        <v>66072.4062897836</v>
       </c>
       <c r="F22" t="n">
-        <v>69322.1461459097</v>
+        <v>70172.7426996745</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>45792</v>
       </c>
       <c r="I22" t="n">
-        <v>14667.1951212273</v>
+        <v>14588.9769885325</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>58109.668206077</v>
+        <v>58278.8582830695</v>
       </c>
       <c r="C23" t="n">
-        <v>52900.1544237547</v>
+        <v>53277.8667908343</v>
       </c>
       <c r="D23" t="n">
-        <v>50093.7428149332</v>
+        <v>51054.6361722783</v>
       </c>
       <c r="E23" t="n">
-        <v>63266.6227790471</v>
+        <v>64177.0854133316</v>
       </c>
       <c r="F23" t="n">
-        <v>66675.8619718157</v>
+        <v>67853.1468436466</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>40900</v>
       </c>
       <c r="I23" t="n">
-        <v>17209.668206077</v>
+        <v>17378.8582830695</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>58950.3288438339</v>
+        <v>58796.7799684774</v>
       </c>
       <c r="C24" t="n">
-        <v>53572.7121996738</v>
+        <v>53411.8709761283</v>
       </c>
       <c r="D24" t="n">
-        <v>51111.0030509619</v>
+        <v>51001.3943854469</v>
       </c>
       <c r="E24" t="n">
-        <v>65009.9615917451</v>
+        <v>64296.856918174</v>
       </c>
       <c r="F24" t="n">
-        <v>68261.5259367547</v>
+        <v>68398.405880147</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>42174</v>
       </c>
       <c r="I24" t="n">
-        <v>16776.3288438339</v>
+        <v>16622.7799684774</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>58028.3166437952</v>
+        <v>58286.2201954731</v>
       </c>
       <c r="C25" t="n">
-        <v>51851.7404653798</v>
+        <v>52585.3079315811</v>
       </c>
       <c r="D25" t="n">
-        <v>49387.1313620865</v>
+        <v>49608.3308334179</v>
       </c>
       <c r="E25" t="n">
-        <v>63882.4616949661</v>
+        <v>64346.8058318999</v>
       </c>
       <c r="F25" t="n">
-        <v>67226.882394528</v>
+        <v>68425.6022969187</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>42321</v>
       </c>
       <c r="I25" t="n">
-        <v>15707.3166437952</v>
+        <v>15965.2201954731</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>56167.5253718172</v>
+        <v>56433.2100690023</v>
       </c>
       <c r="C26" t="n">
-        <v>50642.4291177165</v>
+        <v>50537.6119173125</v>
       </c>
       <c r="D26" t="n">
-        <v>47280.4559063006</v>
+        <v>47576.57994955</v>
       </c>
       <c r="E26" t="n">
-        <v>62422.713996442</v>
+        <v>62628.2040939199</v>
       </c>
       <c r="F26" t="n">
-        <v>66816.4896222421</v>
+        <v>67332.5413435073</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>39586</v>
       </c>
       <c r="I26" t="n">
-        <v>16581.5253718172</v>
+        <v>16847.2100690023</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>52128.2825889826</v>
+        <v>52169.8526794747</v>
       </c>
       <c r="C27" t="n">
-        <v>45804.0071583137</v>
+        <v>45948.4082766468</v>
       </c>
       <c r="D27" t="n">
-        <v>43771.1440854514</v>
+        <v>43385.4603609032</v>
       </c>
       <c r="E27" t="n">
-        <v>58268.866389862</v>
+        <v>59060.7957317228</v>
       </c>
       <c r="F27" t="n">
-        <v>63530.3245377987</v>
+        <v>63738.3090740068</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>34683</v>
       </c>
       <c r="I27" t="n">
-        <v>17445.2825889826</v>
+        <v>17486.8526794747</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>64029.3757963539</v>
+        <v>64238.0742283627</v>
       </c>
       <c r="C28" t="n">
-        <v>57868.8705365098</v>
+        <v>58322.9397063128</v>
       </c>
       <c r="D28" t="n">
-        <v>54471.8453276492</v>
+        <v>55462.2319109343</v>
       </c>
       <c r="E28" t="n">
-        <v>70669.3432707031</v>
+        <v>70577.6092030231</v>
       </c>
       <c r="F28" t="n">
-        <v>75246.1449426453</v>
+        <v>75098.7165647107</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>46978</v>
       </c>
       <c r="I28" t="n">
-        <v>17051.3757963539</v>
+        <v>17260.0742283627</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>62216.754143926</v>
+        <v>62429.8557328103</v>
       </c>
       <c r="C29" t="n">
-        <v>55531.8896642579</v>
+        <v>56204.8920466128</v>
       </c>
       <c r="D29" t="n">
-        <v>53510.1169354905</v>
+        <v>53827.4966467662</v>
       </c>
       <c r="E29" t="n">
-        <v>68956.4976092833</v>
+        <v>69416.539009393</v>
       </c>
       <c r="F29" t="n">
-        <v>72904.7688887809</v>
+        <v>74304.8356292784</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>39513</v>
       </c>
       <c r="I29" t="n">
-        <v>22703.754143926</v>
+        <v>22916.8557328103</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>64495.538978979</v>
+        <v>64879.2747045632</v>
       </c>
       <c r="C30" t="n">
-        <v>58163.8261693432</v>
+        <v>57991.8984839481</v>
       </c>
       <c r="D30" t="n">
-        <v>55030.0282570626</v>
+        <v>54840.0843024747</v>
       </c>
       <c r="E30" t="n">
-        <v>71052.2469704111</v>
+        <v>72574.0231023564</v>
       </c>
       <c r="F30" t="n">
-        <v>75283.7257405675</v>
+        <v>77235.2943503963</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>43751</v>
       </c>
       <c r="I30" t="n">
-        <v>20744.538978979</v>
+        <v>21128.2747045632</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>63305.6839984806</v>
+        <v>63579.9530214214</v>
       </c>
       <c r="C31" t="n">
-        <v>56210.5056748981</v>
+        <v>56241.5957850041</v>
       </c>
       <c r="D31" t="n">
-        <v>53580.4713307117</v>
+        <v>53906.98435201</v>
       </c>
       <c r="E31" t="n">
-        <v>70814.6060990479</v>
+        <v>71151.6843492606</v>
       </c>
       <c r="F31" t="n">
-        <v>75758.6888476029</v>
+        <v>76861.9390301985</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>48507</v>
       </c>
       <c r="I31" t="n">
-        <v>14798.6839984806</v>
+        <v>15072.9530214214</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>66754.6722675483</v>
+        <v>66571.2686176647</v>
       </c>
       <c r="C32" t="n">
-        <v>59916.1766049212</v>
+        <v>59371.078129964</v>
       </c>
       <c r="D32" t="n">
-        <v>57064.0805618762</v>
+        <v>56619.3705436343</v>
       </c>
       <c r="E32" t="n">
-        <v>73569.2574864791</v>
+        <v>74753.014790805</v>
       </c>
       <c r="F32" t="n">
-        <v>77394.2449739952</v>
+        <v>79068.5245201289</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>51391</v>
       </c>
       <c r="I32" t="n">
-        <v>15363.6722675483</v>
+        <v>15180.2686176647</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>66535.6048567546</v>
+        <v>66496.8714497773</v>
       </c>
       <c r="C33" t="n">
-        <v>59344.3939086296</v>
+        <v>59398.8251189323</v>
       </c>
       <c r="D33" t="n">
-        <v>56445.8263135711</v>
+        <v>57016.1073968064</v>
       </c>
       <c r="E33" t="n">
-        <v>74346.6390159829</v>
+        <v>75123.2180524824</v>
       </c>
       <c r="F33" t="n">
-        <v>79221.3345221238</v>
+        <v>79711.355338317</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>50482</v>
       </c>
       <c r="I33" t="n">
-        <v>16053.6048567546</v>
+        <v>16014.8714497773</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>64885.3992836071</v>
+        <v>64935.3623942221</v>
       </c>
       <c r="C34" t="n">
-        <v>57325.0250317923</v>
+        <v>57287.1977372632</v>
       </c>
       <c r="D34" t="n">
-        <v>54496.5508159403</v>
+        <v>54767.2157744797</v>
       </c>
       <c r="E34" t="n">
-        <v>73007.47685198</v>
+        <v>72983.4060085661</v>
       </c>
       <c r="F34" t="n">
-        <v>76688.920878683</v>
+        <v>78086.972246602</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>44470</v>
       </c>
       <c r="I34" t="n">
-        <v>20415.3992836071</v>
+        <v>20465.3623942221</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>62569.1648795331</v>
+        <v>62918.1702692435</v>
       </c>
       <c r="C35" t="n">
-        <v>55030.4011915699</v>
+        <v>55091.6242279867</v>
       </c>
       <c r="D35" t="n">
-        <v>51406.3624435809</v>
+        <v>51723.5361040621</v>
       </c>
       <c r="E35" t="n">
-        <v>70472.5811346457</v>
+        <v>70952.0580482597</v>
       </c>
       <c r="F35" t="n">
-        <v>76161.2430412721</v>
+        <v>77487.4976029497</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>39054</v>
       </c>
       <c r="I35" t="n">
-        <v>23515.1648795331</v>
+        <v>23864.1702692435</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>63389.9709796326</v>
+        <v>63697.8927326116</v>
       </c>
       <c r="C36" t="n">
-        <v>56255.5487957167</v>
+        <v>55802.6888522308</v>
       </c>
       <c r="D36" t="n">
-        <v>52038.4843625456</v>
+        <v>52302.9301236294</v>
       </c>
       <c r="E36" t="n">
-        <v>71957.8515075191</v>
+        <v>72763.9037274152</v>
       </c>
       <c r="F36" t="n">
-        <v>76827.5093927025</v>
+        <v>78222.3777186245</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>35152</v>
       </c>
       <c r="I36" t="n">
-        <v>28237.9709796326</v>
+        <v>28545.8927326116</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,19 +1544,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>62576.2157168276</v>
+        <v>63043.9553106258</v>
       </c>
       <c r="C37" t="n">
-        <v>54745.2610299956</v>
+        <v>54807.4043979923</v>
       </c>
       <c r="D37" t="n">
-        <v>50573.7059800937</v>
+        <v>51453.0450174927</v>
       </c>
       <c r="E37" t="n">
-        <v>71509.7033068215</v>
+        <v>72094.7975891015</v>
       </c>
       <c r="F37" t="n">
-        <v>77144.6573193589</v>
+        <v>78321.8506697482</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1565,7 +1565,7 @@
         <v>24367</v>
       </c>
       <c r="I37" t="n">
-        <v>38209.2157168276</v>
+        <v>38676.9553106258</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,19 +1576,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>60623.1159151093</v>
+        <v>60941.2828035178</v>
       </c>
       <c r="C38" t="n">
-        <v>52318.4269104159</v>
+        <v>52380.9891537073</v>
       </c>
       <c r="D38" t="n">
-        <v>47568.091104232</v>
+        <v>48780.8676507969</v>
       </c>
       <c r="E38" t="n">
-        <v>69386.2826965825</v>
+        <v>70341.9311002353</v>
       </c>
       <c r="F38" t="n">
-        <v>75675.9503693311</v>
+        <v>76802.6900100754</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1597,7 +1597,7 @@
         <v>28708</v>
       </c>
       <c r="I38" t="n">
-        <v>31915.1159151093</v>
+        <v>32233.2828035178</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,19 +1608,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>56619.7944068261</v>
+        <v>56774.2360943101</v>
       </c>
       <c r="C39" t="n">
-        <v>48127.0390728046</v>
+        <v>48203.9167140655</v>
       </c>
       <c r="D39" t="n">
-        <v>44438.6192440764</v>
+        <v>44107.2796407165</v>
       </c>
       <c r="E39" t="n">
-        <v>66617.0502703986</v>
+        <v>66858.6135010944</v>
       </c>
       <c r="F39" t="n">
-        <v>72347.2178640182</v>
+        <v>73791.833697793</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         <v>43574</v>
       </c>
       <c r="I39" t="n">
-        <v>13045.7944068261</v>
+        <v>13200.2360943101</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,19 +1640,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>68380.5722034601</v>
+        <v>68912.9511996845</v>
       </c>
       <c r="C40" t="n">
-        <v>59199.2432733549</v>
+        <v>60264.3530680964</v>
       </c>
       <c r="D40" t="n">
-        <v>54484.3523934646</v>
+        <v>56046.3652262645</v>
       </c>
       <c r="E40" t="n">
-        <v>78499.2239045103</v>
+        <v>78671.5757946238</v>
       </c>
       <c r="F40" t="n">
-        <v>84135.4722555639</v>
+        <v>84595.8864810945</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1661,7 +1661,7 @@
         <v>49855</v>
       </c>
       <c r="I40" t="n">
-        <v>18525.5722034601</v>
+        <v>19057.9511996845</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1672,19 +1672,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>66798.5658572371</v>
+        <v>67109.6305050178</v>
       </c>
       <c r="C41" t="n">
-        <v>57337.736202498</v>
+        <v>57880.4807052484</v>
       </c>
       <c r="D41" t="n">
-        <v>54179.9275846007</v>
+        <v>53275.4513766818</v>
       </c>
       <c r="E41" t="n">
-        <v>76729.2282067639</v>
+        <v>77518.8822672735</v>
       </c>
       <c r="F41" t="n">
-        <v>83303.5747133392</v>
+        <v>84164.7392035969</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1693,7 +1693,7 @@
         <v>48926</v>
       </c>
       <c r="I41" t="n">
-        <v>17872.5658572371</v>
+        <v>18183.6305050178</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1704,19 +1704,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>68902.9649081726</v>
+        <v>69307.1042641714</v>
       </c>
       <c r="C42" t="n">
-        <v>59832.0304810166</v>
+        <v>60065.204516939</v>
       </c>
       <c r="D42" t="n">
-        <v>55740.0182348459</v>
+        <v>55801.6582954277</v>
       </c>
       <c r="E42" t="n">
-        <v>77953.5527701705</v>
+        <v>79799.6688891164</v>
       </c>
       <c r="F42" t="n">
-        <v>84537.6482381488</v>
+        <v>85813.9949268512</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1725,7 +1725,7 @@
         <v>53258</v>
       </c>
       <c r="I42" t="n">
-        <v>15644.9649081726</v>
+        <v>16049.1042641714</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1736,19 +1736,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>67867.2865526515</v>
+        <v>68459.4352606615</v>
       </c>
       <c r="C43" t="n">
-        <v>58658.0431433288</v>
+        <v>58490.4568077728</v>
       </c>
       <c r="D43" t="n">
-        <v>53945.4203816324</v>
+        <v>53221.0196048347</v>
       </c>
       <c r="E43" t="n">
-        <v>78232.1459507799</v>
+        <v>79449.4676713922</v>
       </c>
       <c r="F43" t="n">
-        <v>84572.7450951986</v>
+        <v>86495.1312509737</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1757,7 +1757,7 @@
         <v>52007</v>
       </c>
       <c r="I43" t="n">
-        <v>15860.2865526515</v>
+        <v>16452.4352606615</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1768,19 +1768,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>71100.0554453219</v>
+        <v>71504.4327143217</v>
       </c>
       <c r="C44" t="n">
-        <v>60709.8607927292</v>
+        <v>61923.2553664345</v>
       </c>
       <c r="D44" t="n">
-        <v>56271.775977891</v>
+        <v>57511.6971931216</v>
       </c>
       <c r="E44" t="n">
-        <v>80885.0935443099</v>
+        <v>82234.3175180079</v>
       </c>
       <c r="F44" t="n">
-        <v>88381.6480093843</v>
+        <v>89707.5418234635</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1789,7 +1789,7 @@
         <v>58247</v>
       </c>
       <c r="I44" t="n">
-        <v>12853.0554453219</v>
+        <v>13257.4327143217</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1800,19 +1800,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>70998.5742833524</v>
+        <v>71273.2894891863</v>
       </c>
       <c r="C45" t="n">
-        <v>60564.3089431272</v>
+        <v>60991.5750660263</v>
       </c>
       <c r="D45" t="n">
-        <v>55415.2972901323</v>
+        <v>56672.2419686944</v>
       </c>
       <c r="E45" t="n">
-        <v>82151.1211507535</v>
+        <v>82059.2975104586</v>
       </c>
       <c r="F45" t="n">
-        <v>88467.6024538327</v>
+        <v>88635.9744252426</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1821,7 +1821,7 @@
         <v>61068</v>
       </c>
       <c r="I45" t="n">
-        <v>9930.57428335235</v>
+        <v>10205.2894891863</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1832,19 +1832,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>69271.068661892</v>
+        <v>69892.7716603858</v>
       </c>
       <c r="C46" t="n">
-        <v>59721.5905626494</v>
+        <v>59546.8519869117</v>
       </c>
       <c r="D46" t="n">
-        <v>54028.2041740505</v>
+        <v>54816.6539064326</v>
       </c>
       <c r="E46" t="n">
-        <v>80240.8559091298</v>
+        <v>81474.0139537332</v>
       </c>
       <c r="F46" t="n">
-        <v>89651.5443627852</v>
+        <v>89298.9007628715</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1853,7 +1853,7 @@
         <v>55767</v>
       </c>
       <c r="I46" t="n">
-        <v>13504.068661892</v>
+        <v>14125.7716603858</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1864,19 +1864,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>67084.4265542561</v>
+        <v>67690.8701150721</v>
       </c>
       <c r="C47" t="n">
-        <v>56762.6767330858</v>
+        <v>56805.3317855668</v>
       </c>
       <c r="D47" t="n">
-        <v>50554.3963373985</v>
+        <v>52358.0841939074</v>
       </c>
       <c r="E47" t="n">
-        <v>78491.1282096379</v>
+        <v>79402.9998510194</v>
       </c>
       <c r="F47" t="n">
-        <v>88093.5693552362</v>
+        <v>87076.4200030937</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1885,7 +1885,7 @@
         <v>56981</v>
       </c>
       <c r="I47" t="n">
-        <v>10103.4265542561</v>
+        <v>10709.8701150721</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1896,19 +1896,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>67767.2136484759</v>
+        <v>68249.20919871</v>
       </c>
       <c r="C48" t="n">
-        <v>57098.5074517711</v>
+        <v>57730.7224591034</v>
       </c>
       <c r="D48" t="n">
-        <v>49082.7598664935</v>
+        <v>52397.2130026133</v>
       </c>
       <c r="E48" t="n">
-        <v>79382.1339034743</v>
+        <v>79593.2983556136</v>
       </c>
       <c r="F48" t="n">
-        <v>87130.6253084502</v>
+        <v>88885.4930590402</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1917,7 +1917,7 @@
         <v>57719</v>
       </c>
       <c r="I48" t="n">
-        <v>10048.2136484759</v>
+        <v>10530.20919871</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1928,19 +1928,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>67007.2236362612</v>
+        <v>67587.4696392781</v>
       </c>
       <c r="C49" t="n">
-        <v>55350.2525700962</v>
+        <v>56147.0336363622</v>
       </c>
       <c r="D49" t="n">
-        <v>50133.9325589564</v>
+        <v>51473.5310160067</v>
       </c>
       <c r="E49" t="n">
-        <v>78603.6738013305</v>
+        <v>79432.0415686379</v>
       </c>
       <c r="F49" t="n">
-        <v>88658.0553782918</v>
+        <v>88147.6788432726</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1949,7 +1949,7 @@
         <v>50823</v>
       </c>
       <c r="I49" t="n">
-        <v>16184.2236362612</v>
+        <v>16764.4696392781</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
